--- a/PresupuestoIngresos.xlsx
+++ b/PresupuestoIngresos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rectroria/Documents/GitHub/EntregaRectoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB6E72D-807E-3543-A50B-8E5AD9EF2930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C27E60-11F9-8B4D-B508-16CEC3818CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16280" yWindow="500" windowWidth="16980" windowHeight="18440" xr2:uid="{3A5F54E7-E8AD-2942-B7F9-17626260BC85}"/>
   </bookViews>

--- a/PresupuestoIngresos.xlsx
+++ b/PresupuestoIngresos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rectroria/Documents/GitHub/EntregaRectoria/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C27E60-11F9-8B4D-B508-16CEC3818CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0BA29A-DF43-F342-B51E-400D8CC781DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="500" windowWidth="16980" windowHeight="18440" xr2:uid="{3A5F54E7-E8AD-2942-B7F9-17626260BC85}"/>
+    <workbookView xWindow="9140" yWindow="500" windowWidth="24120" windowHeight="18440" xr2:uid="{3A5F54E7-E8AD-2942-B7F9-17626260BC85}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>AÑO</t>
   </si>
@@ -48,6 +48,15 @@
   <si>
     <t>PORCENTAJEINCREMENTO</t>
   </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Columna3</t>
+  </si>
 </sst>
 </file>
 
@@ -57,7 +66,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,21 +82,35 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF818181"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -95,21 +118,358 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF818181"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF818181"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -120,6 +480,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22189B10-4559-C148-986F-CAC820D858B4}" name="Tabla1" displayName="Tabla1" ref="B1:D25" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="B1:D25" xr:uid="{22189B10-4559-C148-986F-CAC820D858B4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00C0D5DB-16DF-A441-894B-6FED52A4F4F1}" name="Columna1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{130B26AC-94D0-074E-A93C-11B80E46ED85}" name="Columna2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E6A01455-E3E4-9047-BF20-56256969D8E8}" name="Columna3" dataDxfId="1">
+      <calculatedColumnFormula>C2-C1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,415 +793,666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48AEED2-1C19-DF41-A6A8-86405DA8E527}">
-  <dimension ref="B1:H25"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+    <row r="1" spans="2:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2">
+    <row r="2" spans="2:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="G2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="9">
         <v>2002</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="3">
         <v>109417680</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3">
+      <c r="D3" s="13"/>
+      <c r="E3" s="2">
+        <f>C4*100/C3-100</f>
+        <v>3.9005497100651354</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2002</v>
+      </c>
+      <c r="H3" s="19">
+        <v>109417680</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="4">
+        <v>2014</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1018815503</v>
+      </c>
+      <c r="L3" s="19">
+        <f>K3-H14</f>
+        <v>121034461</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
         <v>2003</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="5">
         <v>113685571</v>
       </c>
-      <c r="D3" s="1">
-        <f>C3-C2</f>
+      <c r="D4" s="13">
+        <f>C4-C3</f>
         <v>4267891</v>
       </c>
-      <c r="E3" s="4">
-        <f t="shared" ref="E3:E17" si="0">C3*100/C2-100</f>
-        <v>3.9005497100651354</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="E4" s="2">
+        <f>C5*100/C4-100</f>
+        <v>123.98566217343449</v>
+      </c>
+      <c r="G4" s="20">
+        <v>2003</v>
+      </c>
+      <c r="H4" s="21">
+        <v>113685571</v>
+      </c>
+      <c r="I4" s="22">
+        <f>H4-H3</f>
+        <v>4267891</v>
+      </c>
+      <c r="J4" s="20">
+        <v>2015</v>
+      </c>
+      <c r="K4" s="21">
+        <v>1059568123</v>
+      </c>
+      <c r="L4" s="22">
+        <f>K4-K3</f>
+        <v>40752620</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
         <v>2004</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="5">
         <v>254639379</v>
       </c>
-      <c r="D4" s="1">
-        <f>C4-C3</f>
+      <c r="D5" s="13">
+        <f>C5-C4</f>
         <v>140953808</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E5" s="2">
+        <f>C6*100/C5-100</f>
+        <v>45.317002991905667</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2004</v>
+      </c>
+      <c r="H5" s="5">
+        <v>254639379</v>
+      </c>
+      <c r="I5" s="19">
+        <f>H5-H4</f>
+        <v>140953808</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2016</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1209568123</v>
+      </c>
+      <c r="L5" s="19">
+        <f>K5-K4</f>
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C6" s="5">
+        <v>370034314</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" ref="D6:D18" si="0">C6-C5</f>
+        <v>115394935</v>
+      </c>
+      <c r="E6" s="2">
+        <f>C7*100/C6-100</f>
+        <v>35.122603791820239</v>
+      </c>
+      <c r="G6" s="20">
+        <v>2005</v>
+      </c>
+      <c r="H6" s="21">
+        <v>370034314</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" ref="I6:I13" si="1">H6-H5</f>
+        <v>115394935</v>
+      </c>
+      <c r="J6" s="20">
+        <v>2017</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1296028882</v>
+      </c>
+      <c r="L6" s="22">
+        <f>K6-K5</f>
+        <v>86460759</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>2006</v>
+      </c>
+      <c r="C7" s="5">
+        <v>500000000</v>
+      </c>
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
-        <v>123.98566217343449</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>2005</v>
-      </c>
-      <c r="C5" s="3">
-        <v>370034314</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:D17" si="1">C5-C4</f>
-        <v>115394935</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>45.317002991905667</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6">
+        <v>129965686</v>
+      </c>
+      <c r="E7" s="2">
+        <f>C8*100/C7-100</f>
+        <v>41.034789200000006</v>
+      </c>
+      <c r="G7" s="4">
         <v>2006</v>
       </c>
-      <c r="C6" s="3">
+      <c r="H7" s="5">
         <v>500000000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>129965686</v>
       </c>
-      <c r="E6" s="4">
+      <c r="J7" s="4">
+        <v>2018</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1341870037</v>
+      </c>
+      <c r="L7" s="19">
+        <f>K7-K6</f>
+        <v>45841155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>2007</v>
+      </c>
+      <c r="C8" s="5">
+        <v>705173946</v>
+      </c>
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
-        <v>35.122603791820239</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7">
+        <v>205173946</v>
+      </c>
+      <c r="E8" s="2">
+        <f>C9*100/C8-100</f>
+        <v>3.3860720656857666</v>
+      </c>
+      <c r="G8" s="20">
         <v>2007</v>
       </c>
-      <c r="C7" s="3">
+      <c r="H8" s="21">
         <v>705173946</v>
       </c>
-      <c r="D7" s="1">
+      <c r="I8" s="22">
         <f t="shared" si="1"/>
         <v>205173946</v>
       </c>
-      <c r="E7" s="4">
+      <c r="J8" s="20">
+        <v>2019</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1341870037</v>
+      </c>
+      <c r="L8" s="22">
+        <f>K8-K7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>2008</v>
+      </c>
+      <c r="C9" s="5">
+        <v>729051644</v>
+      </c>
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
-        <v>41.034789200000006</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8">
+        <v>23877698</v>
+      </c>
+      <c r="E9" s="2">
+        <f>C10*100/C9-100</f>
+        <v>4.0000000329194734</v>
+      </c>
+      <c r="G9" s="4">
         <v>2008</v>
       </c>
-      <c r="C8" s="3">
+      <c r="H9" s="5">
         <v>729051644</v>
       </c>
-      <c r="D8" s="1">
+      <c r="I9" s="19">
         <f t="shared" si="1"/>
         <v>23877698</v>
       </c>
-      <c r="E8" s="4">
+      <c r="J9" s="4">
+        <v>2020</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1342012682</v>
+      </c>
+      <c r="L9" s="19">
+        <f>K9-K8</f>
+        <v>142645</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>2009</v>
+      </c>
+      <c r="C10" s="5">
+        <v>758213710</v>
+      </c>
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
-        <v>3.3860720656857666</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9">
+        <v>29162066</v>
+      </c>
+      <c r="E10" s="2">
+        <f>C11*100/C10-100</f>
+        <v>-0.41995363022385845</v>
+      </c>
+      <c r="G10" s="20">
         <v>2009</v>
       </c>
-      <c r="C9" s="3">
+      <c r="H10" s="21">
         <v>758213710</v>
       </c>
-      <c r="D9" s="1">
+      <c r="I10" s="22">
         <f t="shared" si="1"/>
         <v>29162066</v>
       </c>
-      <c r="E9" s="4">
+      <c r="J10" s="20">
+        <v>2021</v>
+      </c>
+      <c r="K10" s="21">
+        <v>1395693189</v>
+      </c>
+      <c r="L10" s="22">
+        <f>K10-K9</f>
+        <v>53680507</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>2010</v>
+      </c>
+      <c r="C11" s="5">
+        <v>755029564</v>
+      </c>
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
-        <v>4.0000000329194734</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10">
+        <v>-3184146</v>
+      </c>
+      <c r="E11" s="2">
+        <f>C12*100/C11-100</f>
+        <v>13.244514488971717</v>
+      </c>
+      <c r="G11" s="4">
         <v>2010</v>
       </c>
-      <c r="C10" s="3">
+      <c r="H11" s="5">
         <v>755029564</v>
       </c>
-      <c r="D10" s="1">
+      <c r="I11" s="19">
         <f t="shared" si="1"/>
         <v>-3184146</v>
       </c>
-      <c r="E10" s="4">
+      <c r="J11" s="4">
+        <v>2022</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1500000000</v>
+      </c>
+      <c r="L11" s="19">
+        <f>K11-K10</f>
+        <v>104306811</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>2011</v>
+      </c>
+      <c r="C12" s="5">
+        <v>855029564</v>
+      </c>
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
-        <v>-0.41995363022385845</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11">
+        <v>100000000</v>
+      </c>
+      <c r="E12" s="2">
+        <f>C13*100/C12-100</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
         <v>2011</v>
       </c>
-      <c r="C11" s="3">
+      <c r="H12" s="21">
         <v>855029564</v>
       </c>
-      <c r="D11" s="1">
+      <c r="I12" s="22">
         <f t="shared" si="1"/>
         <v>100000000</v>
       </c>
-      <c r="E11" s="4">
+      <c r="J12" s="20">
+        <v>2023</v>
+      </c>
+      <c r="K12" s="21">
+        <v>1605000000</v>
+      </c>
+      <c r="L12" s="22">
+        <f>K12-K11</f>
+        <v>105000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
+        <v>2012</v>
+      </c>
+      <c r="C13" s="5">
+        <v>855029564</v>
+      </c>
+      <c r="D13" s="13">
         <f t="shared" si="0"/>
-        <v>13.244514488971717</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f>C14*100/C13-100</f>
+        <v>4.99999997660899</v>
+      </c>
+      <c r="G13" s="4">
         <v>2012</v>
       </c>
-      <c r="C12" s="3">
+      <c r="H13" s="5">
         <v>855029564</v>
       </c>
-      <c r="D12" s="1">
+      <c r="I13" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="J13" s="6">
+        <v>2024</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1717350000</v>
+      </c>
+      <c r="L13" s="19">
+        <f>K13-K12</f>
+        <v>112350000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C14" s="5">
+        <v>897781042</v>
+      </c>
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
+        <v>42751478</v>
+      </c>
+      <c r="E14" s="2">
+        <f>C15*100/C14-100</f>
+        <v>13.481512232689809</v>
+      </c>
+      <c r="G14" s="20">
+        <v>2013</v>
+      </c>
+      <c r="H14" s="21">
+        <v>897781042</v>
+      </c>
+      <c r="I14" s="22">
+        <f>H14-H13</f>
+        <v>42751478</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1018815503</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
+        <v>121034461</v>
+      </c>
+      <c r="E15" s="2">
+        <f>C16*100/C15-100</f>
+        <v>3.9999999882216173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>2015</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1059568123</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
+        <v>40752620</v>
+      </c>
+      <c r="E16" s="2">
+        <f>C17*100/C16-100</f>
+        <v>14.156711281130157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>2016</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1209568123</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>150000000</v>
+      </c>
+      <c r="E17" s="2">
+        <f>C18*100/C17-100</f>
+        <v>7.1480685838146911</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1296028882</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>86460759</v>
+      </c>
+      <c r="E18" s="2">
+        <f>C19*100/C18-100</f>
+        <v>3.5370473325609169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1341870037</v>
+      </c>
+      <c r="D19" s="13">
+        <f>C19-C18</f>
+        <v>45841155</v>
+      </c>
+      <c r="E19" s="2">
+        <f>C20*100/C19-100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>2013</v>
-      </c>
-      <c r="C13" s="3">
-        <v>897781042</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>42751478</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>4.99999997660899</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>2014</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1018815503</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>121034461</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>13.481512232689809</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>2015</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1059568123</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>40752620</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9999999882216173</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>2016</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1209568123</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>150000000</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>14.156711281130157</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>2017</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1296028882</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>86460759</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1480685838146911</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>2018</v>
-      </c>
-      <c r="C18" s="3">
+    <row r="20" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C20" s="5">
         <v>1341870037</v>
       </c>
-      <c r="D18" s="1">
-        <f>C18-C17</f>
-        <v>45841155</v>
-      </c>
-      <c r="E18" s="4">
-        <f>C18*100/C17-100</f>
-        <v>3.5370473325609169</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>2019</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1341870037</v>
-      </c>
-      <c r="D19" s="1">
-        <f>C19-C18</f>
+      <c r="D20" s="13">
+        <f>C20-C19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="4">
-        <f t="shared" ref="E19:E24" si="2">C19*100/C18-100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20">
+      <c r="E20" s="2">
+        <f>C21*100/C20-100</f>
+        <v>1.0630314118856177E-2</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
         <v>2020</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="5">
         <v>1342012682</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" ref="D20:D24" si="3">C20-C19</f>
+      <c r="D21" s="13">
+        <f t="shared" ref="D21:D25" si="2">C21-C20</f>
         <v>142645</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="2">
+        <f>C22*100/C21-100</f>
+        <v>3.9999999791358221</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1395693189</v>
+      </c>
+      <c r="D22" s="13">
         <f t="shared" si="2"/>
-        <v>1.0630314118856177E-2</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>2021</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1395693189</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="3"/>
         <v>53680507</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="2">
+        <f>C23*100/C22-100</f>
+        <v>7.473477109588444</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1500000000</v>
+      </c>
+      <c r="D23" s="13">
         <f t="shared" si="2"/>
-        <v>3.9999999791358221</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>2022</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1500000000</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="3"/>
         <v>104306811</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="2">
+        <f>C24*100/C23-100</f>
+        <v>7</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1605000000</v>
+      </c>
+      <c r="D24" s="13">
         <f t="shared" si="2"/>
-        <v>7.473477109588444</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1605000000</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="3"/>
         <v>105000000</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="2">
+        <f>C25*100/C24-100</f>
+        <v>7</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1717350000</v>
+      </c>
+      <c r="D25" s="13">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>2024</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1717350000</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="3"/>
         <v>112350000</v>
       </c>
-      <c r="E24" s="4">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="H25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>